--- a/勤怠管理システム_設計書.xlsx
+++ b/勤怠管理システム_設計書.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epkot\takatsuka\git\epkotsoftware\training\users\chiaki.takatsuka\laravel-crud-study\Attendance\root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEF6B70-8247-45F8-8402-D156DA32B614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BB6898-A5AA-461D-AA55-3B7197159A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1245" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{4B03FFF9-FE52-42A1-B63A-AFFE8FA20BE0}"/>
+    <workbookView xWindow="28680" yWindow="-1245" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{4B03FFF9-FE52-42A1-B63A-AFFE8FA20BE0}"/>
   </bookViews>
   <sheets>
     <sheet name="機能一覧" sheetId="1" r:id="rId1"/>
     <sheet name="画面設計" sheetId="2" r:id="rId2"/>
     <sheet name="ER図" sheetId="3" r:id="rId3"/>
-    <sheet name="users" sheetId="4" r:id="rId4"/>
+    <sheet name="attendance_users" sheetId="4" r:id="rId4"/>
     <sheet name="attendances" sheetId="5" r:id="rId5"/>
     <sheet name="calendar" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -436,10 +436,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>users</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テーブル情報</t>
     <rPh sb="4" eb="6">
       <t>ジョウホウ</t>
@@ -712,6 +708,10 @@
   </si>
   <si>
     <t>NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attendance_users</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -845,7 +845,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -881,9 +881,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1324,14 +1321,14 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21.8984375" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="15.8984375" customWidth="1"/>
+    <col min="3" max="3" width="18.296875" customWidth="1"/>
     <col min="4" max="4" width="9.19921875" customWidth="1"/>
     <col min="5" max="5" width="12.796875" customWidth="1"/>
   </cols>
@@ -1341,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1706,83 +1703,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C59190A-D116-4BE7-BD1F-0D152FD19456}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
     <col min="6" max="6" width="10.296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>5</v>
@@ -1793,20 +1790,20 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -1814,16 +1811,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1839,7 +1836,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1853,69 +1850,69 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>5</v>
@@ -1926,20 +1923,20 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -1947,83 +1944,83 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>3</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>78</v>
+      <c r="B13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>4</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>79</v>
+      <c r="B14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>5</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>75</v>
+      <c r="B15" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2036,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{933EEBE3-7174-4A0C-B75F-712E32A3670C}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2051,69 +2048,69 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>5</v>
@@ -2124,20 +2121,20 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -2145,66 +2142,66 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>78</v>
+        <v>72</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>3</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>87</v>
+      <c r="B13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>4</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>64</v>
+      <c r="B14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
